--- a/result036.xlsx
+++ b/result036.xlsx
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1314,9 +1314,7 @@
           <t>Purity%</t>
         </is>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>24209</v>
-      </c>
+      <c r="D3" s="11" t="n"/>
       <c r="E3" s="12" t="inlineStr">
         <is>
           <t>Area 1</t>
@@ -1353,7 +1351,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16.35" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Acual weight of ST/mg</t>
@@ -1369,15 +1367,9 @@
       <c r="D4" s="17" t="n">
         <v>998</v>
       </c>
-      <c r="E4" s="18" t="n">
-        <v>3687.66602</v>
-      </c>
-      <c r="F4" s="19" t="n">
-        <v>3745.65747</v>
-      </c>
-      <c r="G4" s="19" t="n">
-        <v>3760.25293</v>
-      </c>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="19" t="n"/>
+      <c r="G4" s="19" t="n"/>
       <c r="H4" s="17">
         <f>AVERAGE(E4:G4)</f>
         <v/>
@@ -1401,9 +1393,7 @@
           <t>Area 1</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n">
-        <v>3677.96875</v>
-      </c>
+      <c r="B5" s="18" t="n"/>
       <c r="C5" s="10" t="inlineStr">
         <is>
           <t>Denisty/gm</t>
@@ -1448,30 +1438,22 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16.35" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>
       </c>
-      <c r="B6" s="22" t="n">
-        <v>3688.12012</v>
-      </c>
+      <c r="B6" s="22" t="n"/>
       <c r="C6" s="16" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="17" t="n">
         <v>991</v>
       </c>
-      <c r="E6" s="21" t="n">
-        <v>3690.40015</v>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>3755.44409</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>3789.65503</v>
-      </c>
+      <c r="E6" s="21" t="n"/>
+      <c r="F6" s="19" t="n"/>
+      <c r="G6" s="19" t="n"/>
       <c r="H6" s="17">
         <f>AVERAGE(E6:G6)</f>
         <v/>
@@ -1495,9 +1477,7 @@
           <t>Area 3</t>
         </is>
       </c>
-      <c r="B7" s="22" t="n">
-        <v>3700.31128</v>
-      </c>
+      <c r="B7" s="22" t="n"/>
       <c r="C7" s="29" t="inlineStr">
         <is>
           <t>ser-wt of T/mg</t>
@@ -1542,7 +1522,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="16.35" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24" t="inlineStr">
         <is>
           <t>Avg.</t>
@@ -1558,15 +1538,9 @@
       <c r="D8" s="17" t="n">
         <v>989</v>
       </c>
-      <c r="E8" s="25" t="n">
-        <v>3692.55493</v>
-      </c>
-      <c r="F8" s="26" t="n">
-        <v>3805.26001</v>
-      </c>
-      <c r="G8" s="26" t="n">
-        <v>3772.30835</v>
-      </c>
+      <c r="E8" s="25" t="n"/>
+      <c r="F8" s="26" t="n"/>
+      <c r="G8" s="26" t="n"/>
       <c r="H8" s="27">
         <f>AVERAGE(E8:G8)</f>
         <v/>
@@ -1608,7 +1582,7 @@
       <c r="J9" s="28" t="n"/>
       <c r="K9" s="28" t="n"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1">
+    <row r="10">
       <c r="A10" s="24" t="inlineStr">
         <is>
           <t>RSD%</t>
@@ -1643,7 +1617,7 @@
       <c r="J11" s="30" t="n"/>
       <c r="K11" s="30" t="n"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1">
+    <row r="12">
       <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Potency of STD</t>
@@ -1681,7 +1655,7 @@
       <c r="J13" s="30" t="n"/>
       <c r="K13" s="30" t="n"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1">
+    <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>DATE</t>
@@ -1799,7 +1773,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="16.35" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Acual weight of ST/mg</t>
@@ -1939,7 +1913,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="16.35" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="inlineStr">
         <is>
           <t>Area 2</t>
@@ -1955,22 +1929,25 @@
         <v>989</v>
       </c>
       <c r="E19" s="21" t="n">
-        <v>3722.29492</v>
+        <v>3738.39844</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>3722.4209</v>
+        <v>3741.10596</v>
       </c>
       <c r="G19" s="19" t="n">
-        <v>3741.10669</v>
-      </c>
-      <c r="H19" s="17" t="n">
-        <v>3738.39844</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>3741.10596</v>
-      </c>
-      <c r="J19" s="17" t="n">
         <v>3742.23633</v>
+      </c>
+      <c r="H19" s="17">
+        <f>AVERAGE(E19:G19)</f>
+        <v/>
+      </c>
+      <c r="I19" s="17">
+        <f>STDEV(E19:G19)</f>
+        <v/>
+      </c>
+      <c r="J19" s="17">
+        <f>100*I19/H19</f>
+        <v/>
       </c>
       <c r="K19" s="17">
         <f>H19/B21*B17/C23*C21/D19*C17*C19</f>
@@ -2076,13 +2053,13 @@
         <v>978</v>
       </c>
       <c r="E21" s="21" t="n">
-        <v>3691.33643</v>
+        <v>3695.18677</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>3693.2373</v>
+        <v>3694.07349</v>
       </c>
       <c r="G21" s="19" t="n">
-        <v>3685.30054</v>
+        <v>3688.09814</v>
       </c>
       <c r="H21" s="17">
         <f>AVERAGE(E21:G21)</f>
@@ -2096,15 +2073,11 @@
         <f>100*I21/H21</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="n">
-        <v>3695.18677</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3694.07349</v>
-      </c>
-      <c r="M21" s="38" t="n">
-        <v>3688.09814</v>
-      </c>
+      <c r="K21" s="17">
+        <f>H21/B21*B17/C23*C21/D21*C17*C19</f>
+        <v/>
+      </c>
+      <c r="M21" s="38" t="n"/>
       <c r="N21" s="40" t="n"/>
       <c r="O21" s="39" t="n"/>
       <c r="P21" s="39" t="n"/>
@@ -2141,7 +2114,7 @@
       <c r="Q22" s="39" t="n"/>
       <c r="R22" s="51" t="n"/>
     </row>
-    <row r="23" ht="15.6" customHeight="1">
+    <row r="23">
       <c r="A23" s="24" t="inlineStr">
         <is>
           <t>RSD%</t>
@@ -2176,7 +2149,7 @@
       <c r="J24" s="30" t="n"/>
       <c r="K24" s="30" t="n"/>
     </row>
-    <row r="25" ht="15.6" customHeight="1">
+    <row r="25">
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="n"/>
@@ -2202,7 +2175,7 @@
       <c r="J26" s="30" t="n"/>
       <c r="K26" s="30" t="n"/>
     </row>
-    <row r="27" ht="15.6" customHeight="1">
+    <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>DATE</t>
@@ -2254,9 +2227,7 @@
           <t>Purity%</t>
         </is>
       </c>
-      <c r="D29" s="11" t="n">
-        <v>24209</v>
-      </c>
+      <c r="D29" s="11" t="n"/>
       <c r="E29" s="13" t="inlineStr">
         <is>
           <t>Area 1</t>
@@ -2293,7 +2264,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="16.35" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="inlineStr">
         <is>
           <t>Acual weight of ST/mg</t>
@@ -2309,15 +2280,9 @@
       <c r="D30" s="17" t="n">
         <v>1001</v>
       </c>
-      <c r="E30" s="18" t="n">
-        <v>3730.54004</v>
-      </c>
-      <c r="F30" s="19" t="n">
-        <v>3737.81763</v>
-      </c>
-      <c r="G30" s="19" t="n">
-        <v>3745.36792</v>
-      </c>
+      <c r="E30" s="18" t="n"/>
+      <c r="F30" s="19" t="n"/>
+      <c r="G30" s="19" t="n"/>
       <c r="H30" s="17">
         <f>AVERAGE(E30:G30)</f>
         <v/>
@@ -2341,17 +2306,13 @@
           <t>Area 1</t>
         </is>
       </c>
-      <c r="B31" s="18" t="n">
-        <v>3695.58862</v>
-      </c>
+      <c r="B31" s="18" t="n"/>
       <c r="C31" s="10" t="inlineStr">
         <is>
           <t>Denisty/gm</t>
         </is>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>24210</v>
-      </c>
+      <c r="D31" s="11" t="n"/>
       <c r="E31" s="24" t="inlineStr">
         <is>
           <t>Area 1</t>
@@ -2388,30 +2349,22 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="16.35" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="inlineStr">
         <is>
           <t>Area 2</t>
         </is>
       </c>
-      <c r="B32" s="22" t="n">
-        <v>3698.23926</v>
-      </c>
+      <c r="B32" s="22" t="n"/>
       <c r="C32" s="16" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="17" t="n">
         <v>996</v>
       </c>
-      <c r="E32" s="21" t="n">
-        <v>3738.39844</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <v>3741.10596</v>
-      </c>
-      <c r="G32" s="19" t="n">
-        <v>3742.23633</v>
-      </c>
+      <c r="E32" s="21" t="n"/>
+      <c r="F32" s="19" t="n"/>
+      <c r="G32" s="19" t="n"/>
       <c r="H32" s="17">
         <f>AVERAGE(E32:G32)</f>
         <v/>
@@ -2435,17 +2388,13 @@
           <t>Area 3</t>
         </is>
       </c>
-      <c r="B33" s="22" t="n">
-        <v>3709.58691</v>
-      </c>
+      <c r="B33" s="22" t="n"/>
       <c r="C33" s="29" t="inlineStr">
         <is>
           <t>ser-wt of T/mg</t>
         </is>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>24211</v>
-      </c>
+      <c r="D33" s="11" t="n"/>
       <c r="E33" s="13" t="inlineStr">
         <is>
           <t>Area 1</t>
@@ -2482,7 +2431,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="16.35" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="24" t="inlineStr">
         <is>
           <t>Avg.</t>
@@ -2498,15 +2447,9 @@
       <c r="D34" s="17" t="n">
         <v>979</v>
       </c>
-      <c r="E34" s="21" t="n">
-        <v>3695.18677</v>
-      </c>
-      <c r="F34" s="19" t="n">
-        <v>3694.07349</v>
-      </c>
-      <c r="G34" s="19" t="n">
-        <v>3688.09814</v>
-      </c>
+      <c r="E34" s="21" t="n"/>
+      <c r="F34" s="19" t="n"/>
+      <c r="G34" s="19" t="n"/>
       <c r="H34" s="17">
         <f>AVERAGE(E34:G34)</f>
         <v/>
@@ -2548,7 +2491,7 @@
       <c r="J35" s="28" t="n"/>
       <c r="K35" s="28" t="n"/>
     </row>
-    <row r="36" ht="15.6" customHeight="1">
+    <row r="36">
       <c r="A36" s="24" t="inlineStr">
         <is>
           <t>RSD%</t>
